--- a/assets/template/New Attendance.xlsx
+++ b/assets/template/New Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\clcc\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60DB7C8-6640-4520-9821-35687AAA3166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E06CA9-4174-4BBC-AA53-C7A629DCD55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{513D5CB4-521C-4CB5-845E-40BE5429BCF2}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>ABSENT</t>
   </si>
   <si>
-    <t>LATE</t>
-  </si>
-  <si>
     <t>REMARKS</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>UNDERTIME</t>
+  </si>
+  <si>
+    <t>LT/UT</t>
   </si>
 </sst>
 </file>
@@ -336,14 +336,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,6 +345,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -360,20 +372,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +692,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,141 +705,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="16" t="s">
+      <c r="P4" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="19"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -879,6 +879,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="O4:O6"/>
@@ -895,10 +899,6 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
